--- a/ChuangYeRen_Project/创业人需求初步评估.xlsx
+++ b/ChuangYeRen_Project/创业人需求初步评估.xlsx
@@ -303,7 +303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +336,21 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -385,10 +400,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -406,12 +422,44 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -713,7 +761,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1065,7 +1113,7 @@
       <c r="C10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1232,36 +1280,36 @@
     <hyperlink ref="E4" r:id="rId15" display="http://localhost/classview/Default.aspx?ID=a2b661f5-1be4-4bbf-ba00-050967b9fa11&amp;classname=UFIDA.U9.ISV.MO.CreateIssue4External"/>
     <hyperlink ref="D5" r:id="rId16" display="http://localhost/classview/Default.aspx?ID=412798c1-a143-4564-b02f-7eb13fb0c732&amp;classname=UFIDA.U9.Complete.RcvRptBP.CreateRcvRpt"/>
     <hyperlink ref="E5" r:id="rId17" display="http://localhost/classview/Default.aspx?ID=412798c1-a143-4564-b02f-7eb13fb0c732&amp;classname=UFIDA.U9.Complete.RcvRptBP.CreateRcvRpt"/>
-    <hyperlink ref="D10" r:id="rId18" display="http://localhost/classview/Default.aspx?ID=8a8dea83-c6fc-435b-9f6b-4de6fe692df3&amp;classname=UFIDA.U9.ISV.FA.CreateTransInDocSV"/>
-    <hyperlink ref="E10" r:id="rId19" display="http://localhost/classview/Default.aspx?ID=8a8dea83-c6fc-435b-9f6b-4de6fe692df3&amp;classname=UFIDA.U9.ISV.FA.CreateTransInDocSV"/>
-    <hyperlink ref="G2" r:id="rId20" display="http://localhost/classview/Default.aspx?ID=6274d0fb-57d9-41b5-89e1-4cdae4e81333&amp;classname=UFIDA.U9.ISV.SM.AuditShipSV"/>
-    <hyperlink ref="G3" r:id="rId21" display="http://localhost/classview/Default.aspx?ID=c3adec8e-8ece-4716-b319-bb451e941104&amp;classname=UFIDA.U9.PM.Rcv.RcvBatchApprovedBP"/>
-    <hyperlink ref="G4" r:id="rId22" display="http://localhost/classview/Default.aspx?ID=c5fdde54-869b-4439-a6da-7c12194b3d4f&amp;classname=UFIDA.U9.MO.Issue.BatchApproveIssueTXN"/>
-    <hyperlink ref="G5" r:id="rId23" display="http://localhost/classview/Default.aspx?ID=ceeda4ce-f719-4e95-8715-6b60c3cdbaf6&amp;classname=UFIDA.U9.Complete.RcvRptBP.BatchApproveRcvRptDoc"/>
-    <hyperlink ref="G6" r:id="rId24" display="http://localhost/classview/Default.aspx?ID=dbbf3a01-c12e-4b12-8b52-cd0ab7ef8e31&amp;classname=UFIDA.U9.ISV.MiscShipISV.CommonApproveMiscShipSV"/>
-    <hyperlink ref="D6" r:id="rId25" display="http://localhost/classview/Default.aspx?ID=1c005a89-3900-40a6-91da-c9cd2d6875a0&amp;classname=UFIDA.U9.ISV.MiscShipISV.CommonCreateMiscShip"/>
-    <hyperlink ref="E6" r:id="rId26" display="http://localhost/classview/Default.aspx?ID=1c005a89-3900-40a6-91da-c9cd2d6875a0&amp;classname=UFIDA.U9.ISV.MiscShipISV.CommonCreateMiscShip"/>
-    <hyperlink ref="G7" r:id="rId27" display="http://localhost/classview/Default.aspx?ID=f11efecc-0f49-49e1-9716-69523e848a01&amp;classname=UFIDA.U9.ISV.MiscRcvISV.CommonApproveMiscRcv"/>
-    <hyperlink ref="D7" r:id="rId28" display="http://localhost/classview/Default.aspx?ID=070c7550-bdde-4736-a2ff-5576cba10aa6&amp;classname=UFIDA.U9.ISV.MiscRcvISV.CommonCreateMiscRcv"/>
-    <hyperlink ref="E7" r:id="rId29" display="http://localhost/classview/Default.aspx?ID=070c7550-bdde-4736-a2ff-5576cba10aa6&amp;classname=UFIDA.U9.ISV.MiscRcvISV.CommonCreateMiscRcv"/>
-    <hyperlink ref="D8" r:id="rId30" display="http://localhost/classview/Default.aspx?ID=55c55fd8-36c0-4f36-897a-f76e25b3f91f&amp;classname=UFIDA.U9.InvDoc.TransferForm.CreateTransferFormSV"/>
-    <hyperlink ref="E8" r:id="rId31" display="http://localhost/classview/Default.aspx?ID=55c55fd8-36c0-4f36-897a-f76e25b3f91f&amp;classname=UFIDA.U9.InvDoc.TransferForm.CreateTransferFormSV"/>
-    <hyperlink ref="G8" r:id="rId32" display="http://localhost/classview/Default.aspx?ID=2bc286ae-8e36-437a-8f04-f7cf92497e87&amp;classname=UFIDA.U9.ISV.TransferFormISV.CommonApprovedTransferFormSRV"/>
-    <hyperlink ref="D9" r:id="rId33" display="http://localhost/classview/Default.aspx?ID=4477b6d5-b011-4609-bbb4-96876925151f&amp;classname=UFIDA.U9.ISV.MO.CreateMO4External"/>
-    <hyperlink ref="E9" r:id="rId34" display="http://localhost/classview/Default.aspx?ID=4477b6d5-b011-4609-bbb4-96876925151f&amp;classname=UFIDA.U9.ISV.MO.CreateMO4External"/>
-    <hyperlink ref="G9" r:id="rId35" display="http://localhost/classview/Default.aspx?ID=ddc7862e-d513-4c3f-9a14-d2eb796505ea&amp;classname=UFIDA.U9.ISV.MO.ApproveMo"/>
-    <hyperlink ref="H9" r:id="rId36" display="http://localhost/classview/Default.aspx?ID=a1630d0f-7c5e-45cc-be92-7d2ffadaaf90&amp;classname=UFIDA.U9.ISV.MO.StartMo"/>
-    <hyperlink ref="I9" r:id="rId37" display="http://localhost/classview/Default.aspx?ID=a1630d0f-7c5e-45cc-be92-7d2ffadaaf90&amp;classname=UFIDA.U9.ISV.MO.StartMo"/>
-    <hyperlink ref="G10" r:id="rId38" display="http://localhost/classview/Default.aspx?ID=f4b1bf33-5e84-4f12-905c-f47135402ca2&amp;classname=UFIDA.U9.InvDoc.TransferIn.ApprovedTransferInBP"/>
-    <hyperlink ref="F10" r:id="rId39" display="http://localhost/classview/Default.aspx?ID=f4b1bf33-5e84-4f12-905c-f47135402ca2&amp;classname=UFIDA.U9.InvDoc.TransferIn.ApprovedTransferInBP"/>
-    <hyperlink ref="F9" r:id="rId40" display="http://localhost/classview/Default.aspx?ID=ddc7862e-d513-4c3f-9a14-d2eb796505ea&amp;classname=UFIDA.U9.ISV.MO.ApproveMo"/>
-    <hyperlink ref="F8" r:id="rId41" display="http://localhost/classview/Default.aspx?ID=2bc286ae-8e36-437a-8f04-f7cf92497e87&amp;classname=UFIDA.U9.ISV.TransferFormISV.CommonApprovedTransferFormSRV"/>
-    <hyperlink ref="F7" r:id="rId42" display="http://localhost/classview/Default.aspx?ID=f11efecc-0f49-49e1-9716-69523e848a01&amp;classname=UFIDA.U9.ISV.MiscRcvISV.CommonApproveMiscRcv"/>
-    <hyperlink ref="F6" r:id="rId43" display="http://localhost/classview/Default.aspx?ID=dbbf3a01-c12e-4b12-8b52-cd0ab7ef8e31&amp;classname=UFIDA.U9.ISV.MiscShipISV.CommonApproveMiscShipSV"/>
-    <hyperlink ref="F5" r:id="rId44" display="http://localhost/classview/Default.aspx?ID=ceeda4ce-f719-4e95-8715-6b60c3cdbaf6&amp;classname=UFIDA.U9.Complete.RcvRptBP.BatchApproveRcvRptDoc"/>
-    <hyperlink ref="F4" r:id="rId45" display="http://localhost/classview/Default.aspx?ID=c5fdde54-869b-4439-a6da-7c12194b3d4f&amp;classname=UFIDA.U9.MO.Issue.BatchApproveIssueTXN"/>
-    <hyperlink ref="F3" r:id="rId46" display="http://localhost/classview/Default.aspx?ID=c3adec8e-8ece-4716-b319-bb451e941104&amp;classname=UFIDA.U9.PM.Rcv.RcvBatchApprovedBP"/>
-    <hyperlink ref="F2" r:id="rId47" display="http://localhost/classview/Default.aspx?ID=6274d0fb-57d9-41b5-89e1-4cdae4e81333&amp;classname=UFIDA.U9.ISV.SM.AuditShipSV"/>
+    <hyperlink ref="E10" r:id="rId18" display="http://localhost/classview/Default.aspx?ID=8a8dea83-c6fc-435b-9f6b-4de6fe692df3&amp;classname=UFIDA.U9.ISV.FA.CreateTransInDocSV"/>
+    <hyperlink ref="G2" r:id="rId19" display="http://localhost/classview/Default.aspx?ID=6274d0fb-57d9-41b5-89e1-4cdae4e81333&amp;classname=UFIDA.U9.ISV.SM.AuditShipSV"/>
+    <hyperlink ref="G3" r:id="rId20" display="http://localhost/classview/Default.aspx?ID=c3adec8e-8ece-4716-b319-bb451e941104&amp;classname=UFIDA.U9.PM.Rcv.RcvBatchApprovedBP"/>
+    <hyperlink ref="G4" r:id="rId21" display="http://localhost/classview/Default.aspx?ID=c5fdde54-869b-4439-a6da-7c12194b3d4f&amp;classname=UFIDA.U9.MO.Issue.BatchApproveIssueTXN"/>
+    <hyperlink ref="G5" r:id="rId22" display="http://localhost/classview/Default.aspx?ID=ceeda4ce-f719-4e95-8715-6b60c3cdbaf6&amp;classname=UFIDA.U9.Complete.RcvRptBP.BatchApproveRcvRptDoc"/>
+    <hyperlink ref="G6" r:id="rId23" display="http://localhost/classview/Default.aspx?ID=dbbf3a01-c12e-4b12-8b52-cd0ab7ef8e31&amp;classname=UFIDA.U9.ISV.MiscShipISV.CommonApproveMiscShipSV"/>
+    <hyperlink ref="D6" r:id="rId24" display="http://localhost/classview/Default.aspx?ID=1c005a89-3900-40a6-91da-c9cd2d6875a0&amp;classname=UFIDA.U9.ISV.MiscShipISV.CommonCreateMiscShip"/>
+    <hyperlink ref="E6" r:id="rId25" display="http://localhost/classview/Default.aspx?ID=1c005a89-3900-40a6-91da-c9cd2d6875a0&amp;classname=UFIDA.U9.ISV.MiscShipISV.CommonCreateMiscShip"/>
+    <hyperlink ref="G7" r:id="rId26" display="http://localhost/classview/Default.aspx?ID=f11efecc-0f49-49e1-9716-69523e848a01&amp;classname=UFIDA.U9.ISV.MiscRcvISV.CommonApproveMiscRcv"/>
+    <hyperlink ref="D7" r:id="rId27" display="http://localhost/classview/Default.aspx?ID=070c7550-bdde-4736-a2ff-5576cba10aa6&amp;classname=UFIDA.U9.ISV.MiscRcvISV.CommonCreateMiscRcv"/>
+    <hyperlink ref="E7" r:id="rId28" display="http://localhost/classview/Default.aspx?ID=070c7550-bdde-4736-a2ff-5576cba10aa6&amp;classname=UFIDA.U9.ISV.MiscRcvISV.CommonCreateMiscRcv"/>
+    <hyperlink ref="D8" r:id="rId29" display="http://localhost/classview/Default.aspx?ID=55c55fd8-36c0-4f36-897a-f76e25b3f91f&amp;classname=UFIDA.U9.InvDoc.TransferForm.CreateTransferFormSV"/>
+    <hyperlink ref="E8" r:id="rId30" display="http://localhost/classview/Default.aspx?ID=55c55fd8-36c0-4f36-897a-f76e25b3f91f&amp;classname=UFIDA.U9.InvDoc.TransferForm.CreateTransferFormSV"/>
+    <hyperlink ref="G8" r:id="rId31" display="http://localhost/classview/Default.aspx?ID=2bc286ae-8e36-437a-8f04-f7cf92497e87&amp;classname=UFIDA.U9.ISV.TransferFormISV.CommonApprovedTransferFormSRV"/>
+    <hyperlink ref="D9" r:id="rId32" display="http://localhost/classview/Default.aspx?ID=4477b6d5-b011-4609-bbb4-96876925151f&amp;classname=UFIDA.U9.ISV.MO.CreateMO4External"/>
+    <hyperlink ref="E9" r:id="rId33" display="http://localhost/classview/Default.aspx?ID=4477b6d5-b011-4609-bbb4-96876925151f&amp;classname=UFIDA.U9.ISV.MO.CreateMO4External"/>
+    <hyperlink ref="G9" r:id="rId34" display="http://localhost/classview/Default.aspx?ID=ddc7862e-d513-4c3f-9a14-d2eb796505ea&amp;classname=UFIDA.U9.ISV.MO.ApproveMo"/>
+    <hyperlink ref="H9" r:id="rId35" display="http://localhost/classview/Default.aspx?ID=a1630d0f-7c5e-45cc-be92-7d2ffadaaf90&amp;classname=UFIDA.U9.ISV.MO.StartMo"/>
+    <hyperlink ref="I9" r:id="rId36" display="http://localhost/classview/Default.aspx?ID=a1630d0f-7c5e-45cc-be92-7d2ffadaaf90&amp;classname=UFIDA.U9.ISV.MO.StartMo"/>
+    <hyperlink ref="G10" r:id="rId37" display="http://localhost/classview/Default.aspx?ID=f4b1bf33-5e84-4f12-905c-f47135402ca2&amp;classname=UFIDA.U9.InvDoc.TransferIn.ApprovedTransferInBP"/>
+    <hyperlink ref="F10" r:id="rId38" display="http://localhost/classview/Default.aspx?ID=f4b1bf33-5e84-4f12-905c-f47135402ca2&amp;classname=UFIDA.U9.InvDoc.TransferIn.ApprovedTransferInBP"/>
+    <hyperlink ref="F9" r:id="rId39" display="http://localhost/classview/Default.aspx?ID=ddc7862e-d513-4c3f-9a14-d2eb796505ea&amp;classname=UFIDA.U9.ISV.MO.ApproveMo"/>
+    <hyperlink ref="F8" r:id="rId40" display="http://localhost/classview/Default.aspx?ID=2bc286ae-8e36-437a-8f04-f7cf92497e87&amp;classname=UFIDA.U9.ISV.TransferFormISV.CommonApprovedTransferFormSRV"/>
+    <hyperlink ref="F7" r:id="rId41" display="http://localhost/classview/Default.aspx?ID=f11efecc-0f49-49e1-9716-69523e848a01&amp;classname=UFIDA.U9.ISV.MiscRcvISV.CommonApproveMiscRcv"/>
+    <hyperlink ref="F6" r:id="rId42" display="http://localhost/classview/Default.aspx?ID=dbbf3a01-c12e-4b12-8b52-cd0ab7ef8e31&amp;classname=UFIDA.U9.ISV.MiscShipISV.CommonApproveMiscShipSV"/>
+    <hyperlink ref="F5" r:id="rId43" display="http://localhost/classview/Default.aspx?ID=ceeda4ce-f719-4e95-8715-6b60c3cdbaf6&amp;classname=UFIDA.U9.Complete.RcvRptBP.BatchApproveRcvRptDoc"/>
+    <hyperlink ref="F4" r:id="rId44" display="http://localhost/classview/Default.aspx?ID=c5fdde54-869b-4439-a6da-7c12194b3d4f&amp;classname=UFIDA.U9.MO.Issue.BatchApproveIssueTXN"/>
+    <hyperlink ref="F3" r:id="rId45" display="http://localhost/classview/Default.aspx?ID=c3adec8e-8ece-4716-b319-bb451e941104&amp;classname=UFIDA.U9.PM.Rcv.RcvBatchApprovedBP"/>
+    <hyperlink ref="F2" r:id="rId46" display="http://localhost/classview/Default.aspx?ID=6274d0fb-57d9-41b5-89e1-4cdae4e81333&amp;classname=UFIDA.U9.ISV.SM.AuditShipSV"/>
+    <hyperlink ref="D10" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
@@ -1276,7 +1324,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{371E5563-A877-4093-8EE5-8C3199B7D144}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94A30B7F-A40B-4856-8E7E-584EEAEE66DC}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>